--- a/Anupriya.xlsx
+++ b/Anupriya.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1379,12 +1379,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1404CS97</t>
+          <t>1404CS16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Manisha</t>
+          <t>Gopal Kumar</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1423,12 +1423,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1404CS16</t>
+          <t>1404CS96</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gopal Kumar</t>
+          <t>Akash Yada</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1467,12 +1467,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1404CS96</t>
+          <t>1404CS97</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Akash Yada</t>
+          <t>Manisha</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
@@ -4980,51 +4980,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>DD</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>1404AI00</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> for checking </t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>30</v>
-      </c>
-      <c r="D104" t="n">
-        <v>40</v>
-      </c>
-      <c r="E104" t="n">
-        <v>15</v>
-      </c>
-      <c r="F104" t="n">
-        <v>15</v>
-      </c>
-      <c r="G104" t="n">
-        <v>9</v>
-      </c>
-      <c r="H104" t="n">
-        <v>10</v>
-      </c>
-      <c r="I104" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>3</v>
-      </c>
-      <c r="K104" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>DD</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -5039,7 +4995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5112,128 +5068,128 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1404AI00</t>
+          <t>1404AI01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> for checking </t>
+          <t>Skand Gupta</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>17.7</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>21.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>26.5</v>
+        <v>53.85000000000001</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1404AI01</t>
+          <t>1404AI02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Skand Gupta</t>
+          <t>Pankaj Kumar</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G3" t="n">
-        <v>17.7</v>
+        <v>25.5</v>
       </c>
       <c r="H3" t="n">
-        <v>21.75</v>
+        <v>30.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="J3" t="n">
-        <v>7.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="K3" t="n">
-        <v>53.85000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1404AI02</t>
+          <t>1404AI04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pankaj Kumar</t>
+          <t>Jaishree Mayank</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>30.5</v>
+        <v>34.75</v>
       </c>
       <c r="I4" t="n">
-        <v>6.3</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="K4" t="n">
-        <v>68.5</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -5244,260 +5200,260 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1404AI04</t>
+          <t>1404AI07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jaishree Mayank</t>
+          <t>Vaibhav Sisodiya</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
+        <v>49</v>
+      </c>
+      <c r="G5" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="I5" t="n">
         <v>9</v>
       </c>
-      <c r="G5" t="n">
-        <v>24</v>
-      </c>
-      <c r="H5" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5.100000000000001</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>65.65000000000001</v>
+        <v>59.55</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1404AI07</t>
+          <t>1404AI08</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vaibhav Sisodiya</t>
+          <t>Bhavit Sharma</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D6" t="n">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
-        <v>22.5</v>
+        <v>18.6</v>
       </c>
       <c r="H6" t="n">
-        <v>18.25</v>
+        <v>10.5</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K6" t="n">
-        <v>59.55</v>
+        <v>48.40000000000001</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1404AI08</t>
+          <t>1404AI09</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bhavit Sharma</t>
+          <t>Avinash Kumar</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="H7" t="n">
-        <v>10.5</v>
+        <v>33.5</v>
       </c>
       <c r="I7" t="n">
-        <v>9.300000000000001</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>48.40000000000001</v>
+        <v>66</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1404AI09</t>
+          <t>1404AI10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Avinash Kumar</t>
+          <t>Akhil Jain</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D8" t="n">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F8" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G8" t="n">
-        <v>18.9</v>
+        <v>25.8</v>
       </c>
       <c r="H8" t="n">
-        <v>33.5</v>
+        <v>26</v>
       </c>
       <c r="I8" t="n">
-        <v>7.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="K8" t="n">
-        <v>66</v>
+        <v>74.3</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1404AI10</t>
+          <t>1404AI11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Akhil Jain</t>
+          <t>Arinjaya Khare</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D9" t="n">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G9" t="n">
-        <v>25.8</v>
+        <v>23.7</v>
       </c>
       <c r="H9" t="n">
-        <v>26</v>
+        <v>16.25</v>
       </c>
       <c r="I9" t="n">
-        <v>10.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>74.3</v>
+        <v>56.65000000000001</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1404AI11</t>
+          <t>1404AI13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Arinjaya Khare</t>
+          <t>Ashutosh Dubey</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" t="n">
         <v>40</v>
       </c>
       <c r="G10" t="n">
-        <v>23.7</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>16.25</v>
+        <v>36</v>
       </c>
       <c r="I10" t="n">
-        <v>8.699999999999999</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="J10" t="n">
         <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>56.65000000000001</v>
+        <v>59.59999999999999</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -5508,40 +5464,40 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1404AI13</t>
+          <t>1404AI14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ashutosh Dubey</t>
+          <t>Abhishek Kumar Singh</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D11" t="n">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="E11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>7.800000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="H11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I11" t="n">
-        <v>7.800000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="K11" t="n">
-        <v>59.59999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -5552,40 +5508,40 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1404AI14</t>
+          <t>1404AI15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Abhishek Kumar Singh</t>
+          <t>Amit Meena</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>42</v>
       </c>
       <c r="D12" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12" t="n">
         <v>12.6</v>
       </c>
       <c r="H12" t="n">
-        <v>32</v>
+        <v>30.75</v>
       </c>
       <c r="I12" t="n">
-        <v>6.3</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="K12" t="n">
-        <v>57.3</v>
+        <v>57.25</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -5596,40 +5552,40 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1404AI15</t>
+          <t>1404AI17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Amit Meena</t>
+          <t>Raghav Jindal</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="E13" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G13" t="n">
         <v>12.6</v>
       </c>
       <c r="H13" t="n">
-        <v>30.75</v>
+        <v>26</v>
       </c>
       <c r="I13" t="n">
-        <v>8.100000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="J13" t="n">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>57.25</v>
+        <v>59.9</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -5640,84 +5596,84 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1404AI17</t>
+          <t>1404AI20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Raghav Jindal</t>
+          <t>Rishabh Yadav</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D14" t="n">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G14" t="n">
-        <v>12.6</v>
+        <v>29.7</v>
       </c>
       <c r="H14" t="n">
-        <v>26</v>
+        <v>20.25</v>
       </c>
       <c r="I14" t="n">
-        <v>12.3</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>59.9</v>
+        <v>65.05000000000001</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1404AI20</t>
+          <t>1404AI21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rishabh Yadav</t>
+          <t>Pranav Mutharia</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F15" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="G15" t="n">
-        <v>29.7</v>
+        <v>6.9</v>
       </c>
       <c r="H15" t="n">
-        <v>20.25</v>
+        <v>39.75</v>
       </c>
       <c r="I15" t="n">
-        <v>8.100000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>12.4</v>
       </c>
       <c r="K15" t="n">
-        <v>65.05000000000001</v>
+        <v>69.55</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -5728,128 +5684,128 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1404AI21</t>
+          <t>1404AI22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pranav Mutharia</t>
+          <t>Abhishek Yadav</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D16" t="n">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F16" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G16" t="n">
-        <v>6.9</v>
+        <v>16.2</v>
       </c>
       <c r="H16" t="n">
-        <v>39.75</v>
+        <v>7.75</v>
       </c>
       <c r="I16" t="n">
-        <v>10.5</v>
+        <v>13.2</v>
       </c>
       <c r="J16" t="n">
-        <v>12.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>69.55</v>
+        <v>46.35000000000001</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1404AI22</t>
+          <t>1404AI24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Abhishek Yadav</t>
+          <t>Vivek Kushwaha</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D17" t="n">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="E17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G17" t="n">
-        <v>16.2</v>
+        <v>29.4</v>
       </c>
       <c r="H17" t="n">
-        <v>7.75</v>
+        <v>36.25</v>
       </c>
       <c r="I17" t="n">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="J17" t="n">
-        <v>9.199999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="K17" t="n">
-        <v>46.35000000000001</v>
+        <v>94.05000000000001</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1404AI24</t>
+          <t>1404AI26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vivek Kushwaha</t>
+          <t>Arjun Sankhala</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" t="n">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E18" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" t="n">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G18" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="H18" t="n">
-        <v>36.25</v>
+        <v>35.25</v>
       </c>
       <c r="I18" t="n">
-        <v>13.8</v>
+        <v>14.4</v>
       </c>
       <c r="J18" t="n">
-        <v>14.6</v>
+        <v>10.2</v>
       </c>
       <c r="K18" t="n">
-        <v>94.05000000000001</v>
+        <v>88.95</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -5860,480 +5816,480 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1404AI26</t>
+          <t>1404AI28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Arjun Sankhala</t>
+          <t>Vijay Yadav</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D19" t="n">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="E19" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="G19" t="n">
-        <v>29.1</v>
+        <v>18.3</v>
       </c>
       <c r="H19" t="n">
-        <v>35.25</v>
+        <v>22.75</v>
       </c>
       <c r="I19" t="n">
-        <v>14.4</v>
+        <v>10.2</v>
       </c>
       <c r="J19" t="n">
-        <v>10.2</v>
+        <v>14.8</v>
       </c>
       <c r="K19" t="n">
-        <v>88.95</v>
+        <v>66.05</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1404AI28</t>
+          <t>1404AI30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Vijay Yadav</t>
+          <t>Shinku</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D20" t="n">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="E20" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" t="n">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="G20" t="n">
-        <v>18.3</v>
+        <v>13.8</v>
       </c>
       <c r="H20" t="n">
-        <v>22.75</v>
+        <v>36.75</v>
       </c>
       <c r="I20" t="n">
-        <v>10.2</v>
+        <v>11.7</v>
       </c>
       <c r="J20" t="n">
-        <v>14.8</v>
+        <v>9</v>
       </c>
       <c r="K20" t="n">
-        <v>66.05</v>
+        <v>71.25</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1404AI30</t>
+          <t>1404AI31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Shinku</t>
+          <t>Tarun Garg</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D21" t="n">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="E21" t="n">
+        <v>31</v>
+      </c>
+      <c r="F21" t="n">
         <v>39</v>
       </c>
-      <c r="F21" t="n">
-        <v>45</v>
-      </c>
       <c r="G21" t="n">
-        <v>13.8</v>
+        <v>17.1</v>
       </c>
       <c r="H21" t="n">
-        <v>36.75</v>
+        <v>22</v>
       </c>
       <c r="I21" t="n">
-        <v>11.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>71.25</v>
+        <v>56.19999999999999</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1404AI31</t>
+          <t>1404AI32</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tarun Garg</t>
+          <t>Yogendra Singh Idapachi</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D22" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F22" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>17.1</v>
+        <v>7.5</v>
       </c>
       <c r="H22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" t="n">
-        <v>9.300000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="J22" t="n">
-        <v>7.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="K22" t="n">
-        <v>56.19999999999999</v>
+        <v>50.1</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1404AI32</t>
+          <t>1404AI34</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Yogendra Singh Idapachi</t>
+          <t>Dasaradhi Chandra Vadhan</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D23" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E23" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G23" t="n">
-        <v>7.5</v>
+        <v>27.6</v>
       </c>
       <c r="H23" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="I23" t="n">
-        <v>12.6</v>
+        <v>6.3</v>
       </c>
       <c r="J23" t="n">
-        <v>9</v>
+        <v>12.2</v>
       </c>
       <c r="K23" t="n">
-        <v>50.1</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1404AI34</t>
+          <t>1404AI35</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Dasaradhi Chandra Vadhan</t>
+          <t>Ashish Raj</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D24" t="n">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E24" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F24" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G24" t="n">
-        <v>27.6</v>
+        <v>17.4</v>
       </c>
       <c r="H24" t="n">
-        <v>18.5</v>
+        <v>31.5</v>
       </c>
       <c r="I24" t="n">
-        <v>6.3</v>
+        <v>10.5</v>
       </c>
       <c r="J24" t="n">
-        <v>12.2</v>
+        <v>14</v>
       </c>
       <c r="K24" t="n">
-        <v>64.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1404AI35</t>
+          <t>1404AI37</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ashish Raj</t>
+          <t>Abhishek Kumar</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>17.4</v>
+        <v>6.9</v>
       </c>
       <c r="H25" t="n">
-        <v>31.5</v>
+        <v>19.25</v>
       </c>
       <c r="I25" t="n">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="J25" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="K25" t="n">
-        <v>73.40000000000001</v>
+        <v>42.84999999999999</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1404AI37</t>
+          <t>1404AI38</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Abhishek Kumar</t>
+          <t>Abhijit Roy</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" t="n">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="E26" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F26" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="G26" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H26" t="n">
-        <v>19.25</v>
+        <v>28.25</v>
       </c>
       <c r="I26" t="n">
-        <v>9.9</v>
+        <v>11.4</v>
       </c>
       <c r="J26" t="n">
-        <v>6.8</v>
+        <v>10.2</v>
       </c>
       <c r="K26" t="n">
-        <v>42.84999999999999</v>
+        <v>56.45</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1404AI38</t>
+          <t>1404AI39</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Abhijit Roy</t>
+          <t>Anand Raj</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E27" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F27" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="G27" t="n">
-        <v>6.6</v>
+        <v>16.2</v>
       </c>
       <c r="H27" t="n">
-        <v>28.25</v>
+        <v>24.25</v>
       </c>
       <c r="I27" t="n">
-        <v>11.4</v>
+        <v>10.2</v>
       </c>
       <c r="J27" t="n">
-        <v>10.2</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>56.45</v>
+        <v>56.25000000000001</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1404AI39</t>
+          <t>1404AI40</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Anand Raj</t>
+          <t>Shweta</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D28" t="n">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E28" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F28" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>16.2</v>
+        <v>24</v>
       </c>
       <c r="H28" t="n">
-        <v>24.25</v>
+        <v>29.5</v>
       </c>
       <c r="I28" t="n">
-        <v>10.2</v>
+        <v>11.7</v>
       </c>
       <c r="J28" t="n">
-        <v>5.600000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="K28" t="n">
-        <v>56.25000000000001</v>
+        <v>69.60000000000001</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1404AI40</t>
+          <t>1404AI41</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Shweta</t>
+          <t>Kshitij Susheel Jauhri</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D29" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E29" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>24</v>
+        <v>22.2</v>
       </c>
       <c r="H29" t="n">
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="I29" t="n">
-        <v>11.7</v>
+        <v>6.6</v>
       </c>
       <c r="J29" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="K29" t="n">
-        <v>69.60000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -6344,84 +6300,84 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1404AI41</t>
+          <t>1404AI42</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kshitij Susheel Jauhri</t>
+          <t>Jai Tatia</t>
         </is>
       </c>
       <c r="C30" t="n">
+        <v>91</v>
+      </c>
+      <c r="D30" t="n">
+        <v>110</v>
+      </c>
+      <c r="E30" t="n">
+        <v>28</v>
+      </c>
+      <c r="F30" t="n">
+        <v>54</v>
+      </c>
+      <c r="G30" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K30" t="n">
         <v>74</v>
       </c>
-      <c r="D30" t="n">
-        <v>126</v>
-      </c>
-      <c r="E30" t="n">
-        <v>22</v>
-      </c>
-      <c r="F30" t="n">
-        <v>32</v>
-      </c>
-      <c r="G30" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>66.7</v>
-      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1404AI42</t>
+          <t>1404AI43</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jai Tatia</t>
+          <t>Nilotpal</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D31" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E31" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" t="n">
-        <v>27.3</v>
+        <v>25.5</v>
       </c>
       <c r="H31" t="n">
-        <v>27.5</v>
+        <v>28.25</v>
       </c>
       <c r="I31" t="n">
-        <v>8.4</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="K31" t="n">
-        <v>74</v>
+        <v>71.55</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -6432,40 +6388,40 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1404AI43</t>
+          <t>1404AI51</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nilotpal</t>
+          <t>Chirag Wadhera</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="E32" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F32" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G32" t="n">
-        <v>25.5</v>
+        <v>15</v>
       </c>
       <c r="H32" t="n">
-        <v>28.25</v>
+        <v>38.75</v>
       </c>
       <c r="I32" t="n">
-        <v>7.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="J32" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="K32" t="n">
-        <v>71.55</v>
+        <v>75.55</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -6476,128 +6432,128 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1404AI51</t>
+          <t>1404AI53</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chirag Wadhera</t>
+          <t>Ayush Sharma</t>
         </is>
       </c>
       <c r="C33" t="n">
+        <v>26</v>
+      </c>
+      <c r="D33" t="n">
+        <v>150</v>
+      </c>
+      <c r="E33" t="n">
+        <v>38</v>
+      </c>
+      <c r="F33" t="n">
         <v>50</v>
       </c>
-      <c r="D33" t="n">
-        <v>155</v>
-      </c>
-      <c r="E33" t="n">
-        <v>34</v>
-      </c>
-      <c r="F33" t="n">
-        <v>58</v>
-      </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>38.75</v>
+        <v>37.5</v>
       </c>
       <c r="I33" t="n">
-        <v>10.2</v>
+        <v>11.4</v>
       </c>
       <c r="J33" t="n">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="K33" t="n">
-        <v>75.55</v>
+        <v>66.69999999999999</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1404AI53</t>
+          <t>1404AI54</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ayush Sharma</t>
+          <t>Sudipta Acharya</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D34" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E34" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G34" t="n">
-        <v>7.800000000000001</v>
+        <v>27</v>
       </c>
       <c r="H34" t="n">
-        <v>37.5</v>
+        <v>31.5</v>
       </c>
       <c r="I34" t="n">
-        <v>11.4</v>
+        <v>12.3</v>
       </c>
       <c r="J34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K34" t="n">
-        <v>66.69999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1404AI54</t>
+          <t>1404AI56</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sudipta Acharya</t>
+          <t>Mohammad Junaid Akhtar</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D35" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E35" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F35" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
-        <v>27</v>
+        <v>28.5</v>
       </c>
       <c r="H35" t="n">
-        <v>31.5</v>
+        <v>28.75</v>
       </c>
       <c r="I35" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="J35" t="n">
-        <v>11</v>
+        <v>13.4</v>
       </c>
       <c r="K35" t="n">
-        <v>81.8</v>
+        <v>82.35000000000001</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -6608,216 +6564,216 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1404AI56</t>
+          <t>1404AI57</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mohammad Junaid Akhtar</t>
+          <t>Abhishek</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D36" t="n">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="E36" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F36" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G36" t="n">
-        <v>28.5</v>
+        <v>21.6</v>
       </c>
       <c r="H36" t="n">
-        <v>28.75</v>
+        <v>38.75</v>
       </c>
       <c r="I36" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="J36" t="n">
-        <v>13.4</v>
+        <v>14.2</v>
       </c>
       <c r="K36" t="n">
-        <v>82.35000000000001</v>
+        <v>86.55</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1404AI57</t>
+          <t>1404CS01</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Abhishek</t>
+          <t>Pedgaonkar Rushikesh Shamsundar</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D37" t="n">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="E37" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F37" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="G37" t="n">
-        <v>21.6</v>
+        <v>19.8</v>
       </c>
       <c r="H37" t="n">
-        <v>38.75</v>
+        <v>29.75</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="J37" t="n">
-        <v>14.2</v>
+        <v>8.4</v>
       </c>
       <c r="K37" t="n">
-        <v>86.55</v>
+        <v>67.55</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1404CS01</t>
+          <t>1404CS02</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pedgaonkar Rushikesh Shamsundar</t>
+          <t>Ajay Kumar Meena</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D38" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E38" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F38" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G38" t="n">
-        <v>19.8</v>
+        <v>28.8</v>
       </c>
       <c r="H38" t="n">
-        <v>29.75</v>
+        <v>28.25</v>
       </c>
       <c r="I38" t="n">
-        <v>9.6</v>
+        <v>14.1</v>
       </c>
       <c r="J38" t="n">
-        <v>8.4</v>
+        <v>13.6</v>
       </c>
       <c r="K38" t="n">
-        <v>67.55</v>
+        <v>84.74999999999999</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1404CS02</t>
+          <t>1404CS03</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ajay Kumar Meena</t>
+          <t>Vinay Kumar Trivedi</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D39" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="E39" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F39" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>28.8</v>
+        <v>22.5</v>
       </c>
       <c r="H39" t="n">
-        <v>28.25</v>
+        <v>30.25</v>
       </c>
       <c r="I39" t="n">
-        <v>14.1</v>
+        <v>10.8</v>
       </c>
       <c r="J39" t="n">
-        <v>13.6</v>
+        <v>1.2</v>
       </c>
       <c r="K39" t="n">
-        <v>84.74999999999999</v>
+        <v>64.75</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1404CS03</t>
+          <t>1404CS04</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Vinay Kumar Trivedi</t>
+          <t>Lavudya Santhosh Kumar</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D40" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E40" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G40" t="n">
-        <v>22.5</v>
+        <v>12.6</v>
       </c>
       <c r="H40" t="n">
-        <v>30.25</v>
+        <v>32.5</v>
       </c>
       <c r="I40" t="n">
-        <v>10.8</v>
+        <v>13.2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="K40" t="n">
-        <v>64.75</v>
+        <v>65.3</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -6828,40 +6784,40 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1404CS04</t>
+          <t>1404CS06</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lavudya Santhosh Kumar</t>
+          <t>Abhishek Agrawal</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="D41" t="n">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E41" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F41" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G41" t="n">
-        <v>12.6</v>
+        <v>22.8</v>
       </c>
       <c r="H41" t="n">
-        <v>32.5</v>
+        <v>29.75</v>
       </c>
       <c r="I41" t="n">
-        <v>13.2</v>
+        <v>10.8</v>
       </c>
       <c r="J41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>65.3</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -6872,40 +6828,40 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1404CS06</t>
+          <t>1404CS07</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Abhishek Agrawal</t>
+          <t>Chethireddy Pranay Teja Reddy</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D42" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E42" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F42" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G42" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="H42" t="n">
-        <v>29.75</v>
+        <v>32</v>
       </c>
       <c r="I42" t="n">
-        <v>10.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="J42" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="K42" t="n">
-        <v>69.34999999999999</v>
+        <v>64.3</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -6916,40 +6872,40 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1404CS07</t>
+          <t>1404CS08</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chethireddy Pranay Teja Reddy</t>
+          <t>Korra Ravinder</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D43" t="n">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E43" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F43" t="n">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="G43" t="n">
-        <v>22.5</v>
+        <v>10.2</v>
       </c>
       <c r="H43" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I43" t="n">
-        <v>7.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>11.6</v>
       </c>
       <c r="K43" t="n">
-        <v>64.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -6960,260 +6916,260 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1404CS08</t>
+          <t>1404CS10</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Korra Ravinder</t>
+          <t>Vishal Verma</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D44" t="n">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="E44" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F44" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G44" t="n">
-        <v>10.2</v>
+        <v>22.2</v>
       </c>
       <c r="H44" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="I44" t="n">
-        <v>9.6</v>
+        <v>12.3</v>
       </c>
       <c r="J44" t="n">
-        <v>11.6</v>
+        <v>14.6</v>
       </c>
       <c r="K44" t="n">
-        <v>65.40000000000001</v>
+        <v>62.1</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1404CS10</t>
+          <t>1404CS11</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Vishal Verma</t>
+          <t>Sykam Venkatesh Varma</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D45" t="n">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E45" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F45" t="n">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="G45" t="n">
-        <v>22.2</v>
+        <v>12.6</v>
       </c>
       <c r="H45" t="n">
-        <v>13</v>
+        <v>21.5</v>
       </c>
       <c r="I45" t="n">
-        <v>12.3</v>
+        <v>13.8</v>
       </c>
       <c r="J45" t="n">
-        <v>14.6</v>
+        <v>5.2</v>
       </c>
       <c r="K45" t="n">
-        <v>62.1</v>
+        <v>53.10000000000001</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1404CS11</t>
+          <t>1404CS12</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sykam Venkatesh Varma</t>
+          <t>Angshuman Jana</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D46" t="n">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="E46" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F46" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="G46" t="n">
-        <v>12.6</v>
+        <v>22.5</v>
       </c>
       <c r="H46" t="n">
-        <v>21.5</v>
+        <v>30.75</v>
       </c>
       <c r="I46" t="n">
-        <v>13.8</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>5.2</v>
+        <v>11</v>
       </c>
       <c r="K46" t="n">
-        <v>53.10000000000001</v>
+        <v>70.25</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1404CS12</t>
+          <t>1404CS13</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Angshuman Jana</t>
+          <t>Saikat Sarkar</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D47" t="n">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E47" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F47" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G47" t="n">
-        <v>22.5</v>
+        <v>21</v>
       </c>
       <c r="H47" t="n">
-        <v>30.75</v>
+        <v>39.25</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J47" t="n">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="K47" t="n">
-        <v>70.25</v>
+        <v>79.45</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1404CS13</t>
+          <t>1404CS14</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Saikat Sarkar</t>
+          <t>Shashwat Tiwari</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E48" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F48" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G48" t="n">
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="H48" t="n">
-        <v>39.25</v>
+        <v>38.75</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>10.2</v>
+        <v>6.4</v>
       </c>
       <c r="K48" t="n">
-        <v>79.45</v>
+        <v>63.45</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1404CS14</t>
+          <t>1404CS15</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Shashwat Tiwari</t>
+          <t>Deepak Verma</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="D49" t="n">
-        <v>155</v>
+        <v>71</v>
       </c>
       <c r="E49" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="F49" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49" t="n">
-        <v>10.5</v>
+        <v>25.8</v>
       </c>
       <c r="H49" t="n">
-        <v>38.75</v>
+        <v>17.75</v>
       </c>
       <c r="I49" t="n">
-        <v>7.800000000000001</v>
+        <v>11.4</v>
       </c>
       <c r="J49" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="K49" t="n">
-        <v>63.45</v>
+        <v>61.74999999999999</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -7224,348 +7180,348 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1404CS15</t>
+          <t>1404CS16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Deepak Verma</t>
+          <t>Gopal Kumar</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D50" t="n">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="E50" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G50" t="n">
-        <v>25.8</v>
+        <v>24.3</v>
       </c>
       <c r="H50" t="n">
-        <v>17.75</v>
+        <v>30.25</v>
       </c>
       <c r="I50" t="n">
-        <v>11.4</v>
+        <v>14.4</v>
       </c>
       <c r="J50" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="K50" t="n">
-        <v>61.74999999999999</v>
+        <v>74.74999999999999</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1404CS16</t>
+          <t>1404CS17</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gopal Kumar</t>
+          <t>Syed Arbaaz Qureshi</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="D51" t="n">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="E51" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F51" t="n">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G51" t="n">
-        <v>24.3</v>
+        <v>13.2</v>
       </c>
       <c r="H51" t="n">
-        <v>30.25</v>
+        <v>34.25</v>
       </c>
       <c r="I51" t="n">
-        <v>14.4</v>
+        <v>7.5</v>
       </c>
       <c r="J51" t="n">
-        <v>5.8</v>
+        <v>10.8</v>
       </c>
       <c r="K51" t="n">
-        <v>74.74999999999999</v>
+        <v>65.75</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1404CS17</t>
+          <t>1404CS19</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Syed Arbaaz Qureshi</t>
+          <t>Moolchandra Mridul</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D52" t="n">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E52" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F52" t="n">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="G52" t="n">
-        <v>13.2</v>
+        <v>16.2</v>
       </c>
       <c r="H52" t="n">
-        <v>34.25</v>
+        <v>39.25</v>
       </c>
       <c r="I52" t="n">
-        <v>7.5</v>
+        <v>13.8</v>
       </c>
       <c r="J52" t="n">
-        <v>10.8</v>
+        <v>6.2</v>
       </c>
       <c r="K52" t="n">
-        <v>65.75</v>
+        <v>75.45</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1404CS19</t>
+          <t>1404CS20</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Moolchandra Mridul</t>
+          <t>Kumari Sweta</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="D53" t="n">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="E53" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F53" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G53" t="n">
-        <v>16.2</v>
+        <v>21</v>
       </c>
       <c r="H53" t="n">
-        <v>39.25</v>
+        <v>32.5</v>
       </c>
       <c r="I53" t="n">
-        <v>13.8</v>
+        <v>7.5</v>
       </c>
       <c r="J53" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="K53" t="n">
-        <v>75.45</v>
+        <v>67.8</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1404CS20</t>
+          <t>1404CS21</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kumari Sweta</t>
+          <t>Ashutosh Drolia</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D54" t="n">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="E54" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F54" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G54" t="n">
-        <v>21</v>
+        <v>8.4</v>
       </c>
       <c r="H54" t="n">
-        <v>32.5</v>
+        <v>8.25</v>
       </c>
       <c r="I54" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="J54" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="K54" t="n">
-        <v>67.8</v>
+        <v>32.55</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>F</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1404CS21</t>
+          <t>1404CS23</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ashutosh Drolia</t>
+          <t>Debajyoty Banik</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D55" t="n">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="E55" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F55" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G55" t="n">
-        <v>8.4</v>
+        <v>25.5</v>
       </c>
       <c r="H55" t="n">
-        <v>8.25</v>
+        <v>28.5</v>
       </c>
       <c r="I55" t="n">
-        <v>6.9</v>
+        <v>14.7</v>
       </c>
       <c r="J55" t="n">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="K55" t="n">
-        <v>32.55</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1404CS23</t>
+          <t>1404CS25</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Debajyoty Banik</t>
+          <t>Arpit Kumar</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D56" t="n">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E56" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F56" t="n">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G56" t="n">
-        <v>25.5</v>
+        <v>27.9</v>
       </c>
       <c r="H56" t="n">
-        <v>28.5</v>
+        <v>16.5</v>
       </c>
       <c r="I56" t="n">
-        <v>14.7</v>
+        <v>10.8</v>
       </c>
       <c r="J56" t="n">
-        <v>2.2</v>
+        <v>7.4</v>
       </c>
       <c r="K56" t="n">
-        <v>70.90000000000001</v>
+        <v>62.6</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1404CS25</t>
+          <t>1404CS27</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Arpit Kumar</t>
+          <t>Saharsh Singh</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D57" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E57" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F57" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G57" t="n">
-        <v>27.9</v>
+        <v>12</v>
       </c>
       <c r="H57" t="n">
-        <v>16.5</v>
+        <v>21.5</v>
       </c>
       <c r="I57" t="n">
-        <v>10.8</v>
+        <v>12.6</v>
       </c>
       <c r="J57" t="n">
-        <v>7.4</v>
+        <v>11.2</v>
       </c>
       <c r="K57" t="n">
-        <v>62.6</v>
+        <v>57.3</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -7576,216 +7532,216 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1404CS27</t>
+          <t>1404CS29</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Saharsh Singh</t>
+          <t>Sapana Rani</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D58" t="n">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="E58" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F58" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>12</v>
+        <v>28.5</v>
       </c>
       <c r="H58" t="n">
-        <v>21.5</v>
+        <v>26.25</v>
       </c>
       <c r="I58" t="n">
-        <v>12.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J58" t="n">
-        <v>11.2</v>
+        <v>0.2</v>
       </c>
       <c r="K58" t="n">
-        <v>57.3</v>
+        <v>64.25</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>1404CS29</t>
+          <t>1404CS30</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sapana Rani</t>
+          <t>Anupam Singhal</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D59" t="n">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="E59" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G59" t="n">
-        <v>28.5</v>
+        <v>6.6</v>
       </c>
       <c r="H59" t="n">
-        <v>26.25</v>
+        <v>7.75</v>
       </c>
       <c r="I59" t="n">
-        <v>9.300000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2</v>
+        <v>6.4</v>
       </c>
       <c r="K59" t="n">
-        <v>64.25</v>
+        <v>34.85</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1404CS30</t>
+          <t>1404CS31</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Anupam Singhal</t>
+          <t>Abhishek Kumar</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D60" t="n">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="E60" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F60" t="n">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="G60" t="n">
-        <v>6.6</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="H60" t="n">
-        <v>7.75</v>
+        <v>33</v>
       </c>
       <c r="I60" t="n">
-        <v>14.1</v>
+        <v>12.3</v>
       </c>
       <c r="J60" t="n">
-        <v>6.4</v>
+        <v>11.6</v>
       </c>
       <c r="K60" t="n">
-        <v>34.85</v>
+        <v>64.69999999999999</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>1404CS31</t>
+          <t>1404CS32</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Abhishek Kumar</t>
+          <t>Ayush Mishra</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D61" t="n">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="E61" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F61" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G61" t="n">
-        <v>7.800000000000001</v>
+        <v>25.5</v>
       </c>
       <c r="H61" t="n">
-        <v>33</v>
+        <v>25.5</v>
       </c>
       <c r="I61" t="n">
-        <v>12.3</v>
+        <v>14.4</v>
       </c>
       <c r="J61" t="n">
-        <v>11.6</v>
+        <v>10.8</v>
       </c>
       <c r="K61" t="n">
-        <v>64.69999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1404CS32</t>
+          <t>1404CS33</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ayush Mishra</t>
+          <t>Abdul Rauf Khan</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="D62" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E62" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="G62" t="n">
-        <v>25.5</v>
+        <v>28.5</v>
       </c>
       <c r="H62" t="n">
-        <v>25.5</v>
+        <v>25.75</v>
       </c>
       <c r="I62" t="n">
-        <v>14.4</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>10.8</v>
+        <v>14.2</v>
       </c>
       <c r="K62" t="n">
-        <v>76.2</v>
+        <v>71.45</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -7796,260 +7752,260 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1404CS33</t>
+          <t>1404CS34</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Abdul Rauf Khan</t>
+          <t>Vundela Harsha Vardhan Reddy</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D63" t="n">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F63" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="G63" t="n">
-        <v>28.5</v>
+        <v>29.4</v>
       </c>
       <c r="H63" t="n">
-        <v>25.75</v>
+        <v>27.75</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>13.2</v>
       </c>
       <c r="J63" t="n">
-        <v>14.2</v>
+        <v>8.4</v>
       </c>
       <c r="K63" t="n">
-        <v>71.45</v>
+        <v>78.75</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1404CS34</t>
+          <t>1404CS35</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Vundela Harsha Vardhan Reddy</t>
+          <t>Unnikrishnan A S</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D64" t="n">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="E64" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F64" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="G64" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="H64" t="n">
-        <v>27.75</v>
+        <v>18.25</v>
       </c>
       <c r="I64" t="n">
-        <v>13.2</v>
+        <v>6.9</v>
       </c>
       <c r="J64" t="n">
-        <v>8.4</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>78.75</v>
+        <v>60.25</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1404CS35</t>
+          <t>1404CS36</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Unnikrishnan A S</t>
+          <t>Praveen Singh Dhaked</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D65" t="n">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="E65" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F65" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="G65" t="n">
-        <v>29.7</v>
+        <v>19.8</v>
       </c>
       <c r="H65" t="n">
-        <v>18.25</v>
+        <v>9.5</v>
       </c>
       <c r="I65" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="J65" t="n">
-        <v>5.399999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="K65" t="n">
-        <v>60.25</v>
+        <v>48.4</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1404CS36</t>
+          <t>1404CS38</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Praveen Singh Dhaked</t>
+          <t>Nerella Jona Solomon</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="D66" t="n">
+        <v>98</v>
+      </c>
+      <c r="E66" t="n">
         <v>38</v>
       </c>
-      <c r="E66" t="n">
-        <v>25</v>
-      </c>
       <c r="F66" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G66" t="n">
-        <v>19.8</v>
+        <v>26.1</v>
       </c>
       <c r="H66" t="n">
-        <v>9.5</v>
+        <v>24.5</v>
       </c>
       <c r="I66" t="n">
-        <v>7.5</v>
+        <v>11.4</v>
       </c>
       <c r="J66" t="n">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="K66" t="n">
-        <v>48.4</v>
+        <v>72</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1404CS38</t>
+          <t>1404CS39</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Nerella Jona Solomon</t>
+          <t>Amit Kumar</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D67" t="n">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="E67" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F67" t="n">
         <v>50</v>
       </c>
       <c r="G67" t="n">
-        <v>26.1</v>
+        <v>16.5</v>
       </c>
       <c r="H67" t="n">
-        <v>24.5</v>
+        <v>28</v>
       </c>
       <c r="I67" t="n">
-        <v>11.4</v>
+        <v>9</v>
       </c>
       <c r="J67" t="n">
         <v>10</v>
       </c>
       <c r="K67" t="n">
-        <v>72</v>
+        <v>63.5</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1404CS39</t>
+          <t>1404CS40</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Amit Kumar</t>
+          <t>Nabeel Qaiser</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D68" t="n">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="E68" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F68" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G68" t="n">
-        <v>16.5</v>
+        <v>13.8</v>
       </c>
       <c r="H68" t="n">
-        <v>28</v>
+        <v>20.25</v>
       </c>
       <c r="I68" t="n">
-        <v>9</v>
+        <v>13.2</v>
       </c>
       <c r="J68" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="K68" t="n">
-        <v>63.5</v>
+        <v>57.45</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -8060,128 +8016,128 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1404CS40</t>
+          <t>1404CS41</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Nabeel Qaiser</t>
+          <t>Shubham Upadhyay</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D69" t="n">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E69" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F69" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G69" t="n">
-        <v>13.8</v>
+        <v>11.7</v>
       </c>
       <c r="H69" t="n">
-        <v>20.25</v>
+        <v>26.5</v>
       </c>
       <c r="I69" t="n">
-        <v>13.2</v>
+        <v>9</v>
       </c>
       <c r="J69" t="n">
-        <v>10.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>57.45</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1404CS41</t>
+          <t>1404CS42</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Shubham Upadhyay</t>
+          <t>Vijay Kumar</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D70" t="n">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="E70" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F70" t="n">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="G70" t="n">
-        <v>11.7</v>
+        <v>19.2</v>
       </c>
       <c r="H70" t="n">
-        <v>26.5</v>
+        <v>32.25</v>
       </c>
       <c r="I70" t="n">
-        <v>9</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="J70" t="n">
-        <v>8.199999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="K70" t="n">
-        <v>55.40000000000001</v>
+        <v>70.45</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1404CS42</t>
+          <t>1404CS43</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Vijay Kumar</t>
+          <t>Abhishek Kumar</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D71" t="n">
         <v>129</v>
       </c>
       <c r="E71" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F71" t="n">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G71" t="n">
-        <v>19.2</v>
+        <v>27</v>
       </c>
       <c r="H71" t="n">
         <v>32.25</v>
       </c>
       <c r="I71" t="n">
-        <v>7.199999999999999</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="J71" t="n">
-        <v>11.8</v>
+        <v>7</v>
       </c>
       <c r="K71" t="n">
-        <v>70.45</v>
+        <v>74.05</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -8192,84 +8148,84 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1404CS43</t>
+          <t>1404CS46</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Abhishek Kumar</t>
+          <t>Nimmala Pavan Kalyan</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D72" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E72" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F72" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G72" t="n">
-        <v>27</v>
+        <v>23.1</v>
       </c>
       <c r="H72" t="n">
-        <v>32.25</v>
+        <v>31.25</v>
       </c>
       <c r="I72" t="n">
-        <v>7.800000000000001</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="K72" t="n">
-        <v>74.05</v>
+        <v>63.34999999999999</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>1404CS46</t>
+          <t>1404CS49</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Nimmala Pavan Kalyan</t>
+          <t>Akash Yadav</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D73" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E73" t="n">
         <v>24</v>
       </c>
       <c r="F73" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G73" t="n">
-        <v>23.1</v>
+        <v>27.6</v>
       </c>
       <c r="H73" t="n">
-        <v>31.25</v>
+        <v>27</v>
       </c>
       <c r="I73" t="n">
         <v>7.199999999999999</v>
       </c>
       <c r="J73" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="K73" t="n">
-        <v>63.34999999999999</v>
+        <v>62.2</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -8280,216 +8236,216 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1404CS49</t>
+          <t>1404CS51</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Akash Yadav</t>
+          <t>Ananda Mazumder</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D74" t="n">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="E74" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G74" t="n">
-        <v>27.6</v>
+        <v>29.1</v>
       </c>
       <c r="H74" t="n">
-        <v>27</v>
+        <v>39.25</v>
       </c>
       <c r="I74" t="n">
-        <v>7.199999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="J74" t="n">
-        <v>0.4</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="K74" t="n">
-        <v>62.2</v>
+        <v>85.04999999999998</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1404CS51</t>
+          <t>1404CS52</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ananda Mazumder</t>
+          <t>Dhawal Gupta</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="D75" t="n">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="E75" t="n">
         <v>37</v>
       </c>
       <c r="F75" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G75" t="n">
-        <v>29.1</v>
+        <v>14.4</v>
       </c>
       <c r="H75" t="n">
-        <v>39.25</v>
+        <v>14.5</v>
       </c>
       <c r="I75" t="n">
         <v>11.1</v>
       </c>
       <c r="J75" t="n">
-        <v>5.600000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="K75" t="n">
-        <v>85.04999999999998</v>
+        <v>48.4</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1404CS52</t>
+          <t>1404CS53</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Dhawal Gupta</t>
+          <t>Md Asif Hasan</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D76" t="n">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="E76" t="n">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F76" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G76" t="n">
-        <v>14.4</v>
+        <v>27.3</v>
       </c>
       <c r="H76" t="n">
-        <v>14.5</v>
+        <v>26.75</v>
       </c>
       <c r="I76" t="n">
-        <v>11.1</v>
+        <v>4.8</v>
       </c>
       <c r="J76" t="n">
-        <v>8.4</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="K76" t="n">
-        <v>48.4</v>
+        <v>66.64999999999999</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1404CS53</t>
+          <t>1404CS54</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Md Asif Hasan</t>
+          <t>Nilesh Chakraborty</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E77" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F77" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G77" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="H77" t="n">
-        <v>26.75</v>
+        <v>31</v>
       </c>
       <c r="I77" t="n">
-        <v>4.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J77" t="n">
-        <v>7.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="K77" t="n">
-        <v>66.64999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1404CS54</t>
+          <t>1404CS55</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nilesh Chakraborty</t>
+          <t>Ajit Singh</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D78" t="n">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="E78" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F78" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G78" t="n">
-        <v>27</v>
+        <v>24.6</v>
       </c>
       <c r="H78" t="n">
-        <v>31</v>
+        <v>34.75</v>
       </c>
       <c r="I78" t="n">
-        <v>9.300000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="J78" t="n">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K78" t="n">
-        <v>77.5</v>
+        <v>73.05</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -8500,436 +8456,436 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1404CS55</t>
+          <t>1404CS56</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ajit Singh</t>
+          <t>Varun Garg</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="D79" t="n">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F79" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="G79" t="n">
-        <v>24.6</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="H79" t="n">
-        <v>34.75</v>
+        <v>17</v>
       </c>
       <c r="I79" t="n">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="J79" t="n">
-        <v>9.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="K79" t="n">
-        <v>73.05</v>
+        <v>50.8</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>1404CS56</t>
+          <t>1404CS59</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Varun Garg</t>
+          <t>Mukesh Kumar</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D80" t="n">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="E80" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F80" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G80" t="n">
-        <v>7.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="H80" t="n">
-        <v>17</v>
+        <v>31.25</v>
       </c>
       <c r="I80" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="J80" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K80" t="n">
-        <v>50.8</v>
+        <v>74.75</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1404CS59</t>
+          <t>1404CS61</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Mukesh Kumar</t>
+          <t>Pradeep Kumar</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D81" t="n">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="E81" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="G81" t="n">
-        <v>24</v>
+        <v>18.6</v>
       </c>
       <c r="H81" t="n">
-        <v>31.25</v>
+        <v>24.5</v>
       </c>
       <c r="I81" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="J81" t="n">
-        <v>6</v>
+        <v>10.8</v>
       </c>
       <c r="K81" t="n">
-        <v>74.75</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1404CS61</t>
+          <t>1404CS62</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pradeep Kumar</t>
+          <t>Ajay Deshmukh</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D82" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E82" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F82" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="G82" t="n">
-        <v>18.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H82" t="n">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="I82" t="n">
-        <v>13.2</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="J82" t="n">
-        <v>10.8</v>
+        <v>6</v>
       </c>
       <c r="K82" t="n">
-        <v>67.09999999999999</v>
+        <v>50</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>1404CS62</t>
+          <t>1404CS63</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ajay Deshmukh</t>
+          <t>Sandeep Srivastav Bandikatla</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="D83" t="n">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="E83" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F83" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G83" t="n">
-        <v>8.699999999999999</v>
+        <v>23.1</v>
       </c>
       <c r="H83" t="n">
-        <v>27.5</v>
+        <v>21.75</v>
       </c>
       <c r="I83" t="n">
-        <v>7.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="J83" t="n">
-        <v>6</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="K83" t="n">
-        <v>50</v>
+        <v>61.95</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1404CS63</t>
+          <t>1404CS65</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sandeep Srivastav Bandikatla</t>
+          <t>Suvom Das</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D84" t="n">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="E84" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F84" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G84" t="n">
-        <v>23.1</v>
+        <v>16.8</v>
       </c>
       <c r="H84" t="n">
-        <v>21.75</v>
+        <v>35.25</v>
       </c>
       <c r="I84" t="n">
-        <v>9.9</v>
+        <v>14.7</v>
       </c>
       <c r="J84" t="n">
-        <v>7.199999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="K84" t="n">
-        <v>61.95</v>
+        <v>80.95</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1404CS65</t>
+          <t>1404CS67</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Suvom Das</t>
+          <t>T Chaithanya Reddy</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D85" t="n">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="E85" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F85" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="G85" t="n">
-        <v>16.8</v>
+        <v>25.5</v>
       </c>
       <c r="H85" t="n">
-        <v>35.25</v>
+        <v>21.5</v>
       </c>
       <c r="I85" t="n">
-        <v>14.7</v>
+        <v>12.9</v>
       </c>
       <c r="J85" t="n">
-        <v>14.2</v>
+        <v>7.4</v>
       </c>
       <c r="K85" t="n">
-        <v>80.95</v>
+        <v>67.3</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1404CS67</t>
+          <t>1404CS68</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>T Chaithanya Reddy</t>
+          <t>Ashutosh Kumar</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D86" t="n">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="E86" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F86" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="G86" t="n">
-        <v>25.5</v>
+        <v>22.2</v>
       </c>
       <c r="H86" t="n">
-        <v>21.5</v>
+        <v>36.25</v>
       </c>
       <c r="I86" t="n">
-        <v>12.9</v>
+        <v>12</v>
       </c>
       <c r="J86" t="n">
-        <v>7.4</v>
+        <v>12.4</v>
       </c>
       <c r="K86" t="n">
-        <v>67.3</v>
+        <v>82.85000000000001</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1404CS68</t>
+          <t>1404CS71</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ashutosh Kumar</t>
+          <t>Divyanshu Khandelwal</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D87" t="n">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="E87" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F87" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="G87" t="n">
-        <v>22.2</v>
+        <v>13.8</v>
       </c>
       <c r="H87" t="n">
-        <v>36.25</v>
+        <v>24</v>
       </c>
       <c r="I87" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="J87" t="n">
-        <v>12.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K87" t="n">
-        <v>82.85000000000001</v>
+        <v>57.2</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1404CS71</t>
+          <t>1404CS75</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Divyanshu Khandelwal</t>
+          <t>Sahil Sharma</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D88" t="n">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="E88" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F88" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G88" t="n">
-        <v>13.8</v>
+        <v>8.100000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I88" t="n">
-        <v>9.6</v>
+        <v>15</v>
       </c>
       <c r="J88" t="n">
-        <v>9.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="K88" t="n">
-        <v>57.2</v>
+        <v>62.3</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -8940,480 +8896,480 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1404CS75</t>
+          <t>1404CS78</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Sahil Sharma</t>
+          <t>Kulkarni Malhar Sanjay</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="D89" t="n">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="E89" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F89" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G89" t="n">
-        <v>8.100000000000001</v>
+        <v>24.6</v>
       </c>
       <c r="H89" t="n">
-        <v>29</v>
+        <v>7.5</v>
       </c>
       <c r="I89" t="n">
-        <v>15</v>
+        <v>12.6</v>
       </c>
       <c r="J89" t="n">
-        <v>10.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K89" t="n">
-        <v>62.3</v>
+        <v>52.89999999999999</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1404CS78</t>
+          <t>1404CS80</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Kulkarni Malhar Sanjay</t>
+          <t>Shubham Upadhyay</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="D90" t="n">
+        <v>91</v>
+      </c>
+      <c r="E90" t="n">
         <v>30</v>
       </c>
-      <c r="E90" t="n">
-        <v>42</v>
-      </c>
       <c r="F90" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="G90" t="n">
-        <v>24.6</v>
+        <v>13.5</v>
       </c>
       <c r="H90" t="n">
-        <v>7.5</v>
+        <v>22.75</v>
       </c>
       <c r="I90" t="n">
-        <v>12.6</v>
+        <v>9</v>
       </c>
       <c r="J90" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="K90" t="n">
-        <v>52.89999999999999</v>
+        <v>59.25</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>1404CS80</t>
+          <t>1404CS82</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Shubham Upadhyay</t>
+          <t>Rijul Dhir</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D91" t="n">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E91" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F91" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G91" t="n">
-        <v>13.5</v>
+        <v>17.7</v>
       </c>
       <c r="H91" t="n">
-        <v>22.75</v>
+        <v>15</v>
       </c>
       <c r="I91" t="n">
-        <v>9</v>
+        <v>11.7</v>
       </c>
       <c r="J91" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="K91" t="n">
-        <v>59.25</v>
+        <v>53.8</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1404CS82</t>
+          <t>1404CS84</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Rijul Dhir</t>
+          <t>Mr Shivpreet Sharma</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D92" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E92" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F92" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G92" t="n">
-        <v>17.7</v>
+        <v>18.3</v>
       </c>
       <c r="H92" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="I92" t="n">
-        <v>11.7</v>
+        <v>8.4</v>
       </c>
       <c r="J92" t="n">
-        <v>9.4</v>
+        <v>12.4</v>
       </c>
       <c r="K92" t="n">
-        <v>53.8</v>
+        <v>49.35</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1404CS84</t>
+          <t>1404CS86</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mr Shivpreet Sharma</t>
+          <t>Mukesh Kumar Bheel</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D93" t="n">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="E93" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F93" t="n">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="G93" t="n">
-        <v>18.3</v>
+        <v>24</v>
       </c>
       <c r="H93" t="n">
-        <v>10.25</v>
+        <v>31</v>
       </c>
       <c r="I93" t="n">
-        <v>8.4</v>
+        <v>11.4</v>
       </c>
       <c r="J93" t="n">
-        <v>12.4</v>
+        <v>4.6</v>
       </c>
       <c r="K93" t="n">
-        <v>49.35</v>
+        <v>71</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1404CS86</t>
+          <t>1404CS87</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Mukesh Kumar Bheel</t>
+          <t>Prateek Saxena</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D94" t="n">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="E94" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F94" t="n">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G94" t="n">
-        <v>24</v>
+        <v>29.1</v>
       </c>
       <c r="H94" t="n">
-        <v>31</v>
+        <v>35.75</v>
       </c>
       <c r="I94" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="J94" t="n">
-        <v>4.6</v>
+        <v>14.4</v>
       </c>
       <c r="K94" t="n">
-        <v>71</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1404CS87</t>
+          <t>1404CS88</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Prateek Saxena</t>
+          <t>Ashish Kumar Singh</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D95" t="n">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E95" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F95" t="n">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="G95" t="n">
-        <v>29.1</v>
+        <v>29.7</v>
       </c>
       <c r="H95" t="n">
-        <v>35.75</v>
+        <v>28.25</v>
       </c>
       <c r="I95" t="n">
-        <v>11.1</v>
+        <v>14.7</v>
       </c>
       <c r="J95" t="n">
-        <v>14.4</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>90.34999999999999</v>
+        <v>80.45</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1404CS88</t>
+          <t>1404CS89</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ashish Kumar Singh</t>
+          <t>Karanam Mahidhar</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D96" t="n">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="E96" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F96" t="n">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="G96" t="n">
-        <v>29.7</v>
+        <v>19.8</v>
       </c>
       <c r="H96" t="n">
-        <v>28.25</v>
+        <v>10.75</v>
       </c>
       <c r="I96" t="n">
-        <v>14.7</v>
+        <v>8.4</v>
       </c>
       <c r="J96" t="n">
-        <v>7.800000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="K96" t="n">
-        <v>80.45</v>
+        <v>52.35</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>CD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1404CS89</t>
+          <t>1404CS91</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Karanam Mahidhar</t>
+          <t>Sahil Mansoori</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D97" t="n">
+        <v>53</v>
+      </c>
+      <c r="E97" t="n">
         <v>43</v>
       </c>
-      <c r="E97" t="n">
-        <v>28</v>
-      </c>
       <c r="F97" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G97" t="n">
-        <v>19.8</v>
+        <v>29.7</v>
       </c>
       <c r="H97" t="n">
-        <v>10.75</v>
+        <v>13.25</v>
       </c>
       <c r="I97" t="n">
-        <v>8.4</v>
+        <v>12.9</v>
       </c>
       <c r="J97" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="K97" t="n">
-        <v>52.35</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1404CS91</t>
+          <t>1404CS92</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Sahil Mansoori</t>
+          <t>Nitin Sharma</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D98" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E98" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F98" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G98" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="H98" t="n">
-        <v>13.25</v>
+        <v>11.5</v>
       </c>
       <c r="I98" t="n">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="J98" t="n">
-        <v>13.8</v>
+        <v>13.2</v>
       </c>
       <c r="K98" t="n">
-        <v>69.65000000000001</v>
+        <v>64</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>CC</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1404CS92</t>
+          <t>1404CS93</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Nitin Sharma</t>
+          <t>Aman Kumar</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E99" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F99" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G99" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="H99" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="I99" t="n">
-        <v>9.9</v>
+        <v>12.6</v>
       </c>
       <c r="J99" t="n">
-        <v>13.2</v>
+        <v>11.6</v>
       </c>
       <c r="K99" t="n">
-        <v>64</v>
+        <v>67.8</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -9424,144 +9380,144 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1404CS93</t>
+          <t>1404CS94</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Aman Kumar</t>
+          <t>Sanjeet Kumar Nayak</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D100" t="n">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="E100" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F100" t="n">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G100" t="n">
-        <v>29.1</v>
+        <v>30</v>
       </c>
       <c r="H100" t="n">
-        <v>14.5</v>
+        <v>40</v>
       </c>
       <c r="I100" t="n">
-        <v>12.6</v>
+        <v>15</v>
       </c>
       <c r="J100" t="n">
-        <v>11.6</v>
+        <v>15</v>
       </c>
       <c r="K100" t="n">
-        <v>67.8</v>
+        <v>100</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>AA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1404CS94</t>
+          <t>1404CS95</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Sanjeet Kumar Nayak</t>
+          <t>Vivek Nakum</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D101" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="E101" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F101" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G101" t="n">
-        <v>30</v>
+        <v>22.8</v>
       </c>
       <c r="H101" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I101" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J101" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="K101" t="n">
-        <v>100</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>AB</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1404CS95</t>
+          <t>1404CS96</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Vivek Nakum</t>
+          <t>Akash Yada</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D102" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E102" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F102" t="n">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="G102" t="n">
-        <v>22.8</v>
+        <v>24.3</v>
       </c>
       <c r="H102" t="n">
-        <v>31</v>
+        <v>30.25</v>
       </c>
       <c r="I102" t="n">
-        <v>12</v>
+        <v>14.4</v>
       </c>
       <c r="J102" t="n">
-        <v>14.8</v>
+        <v>5.8</v>
       </c>
       <c r="K102" t="n">
-        <v>80.59999999999999</v>
+        <v>74.74999999999999</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>BB</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>1404CS96</t>
+          <t>1404CS97</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Akash Yada</t>
+          <t>Manisha</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -9592,50 +9548,6 @@
         <v>74.74999999999999</v>
       </c>
       <c r="L103" t="inlineStr">
-        <is>
-          <t>BB</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>1404CS97</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Manisha</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>81</v>
-      </c>
-      <c r="D104" t="n">
-        <v>121</v>
-      </c>
-      <c r="E104" t="n">
-        <v>48</v>
-      </c>
-      <c r="F104" t="n">
-        <v>29</v>
-      </c>
-      <c r="G104" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="H104" t="n">
-        <v>30.25</v>
-      </c>
-      <c r="I104" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J104" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K104" t="n">
-        <v>74.74999999999999</v>
-      </c>
-      <c r="L104" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
